--- a/data/feature/가성비추가feature.xlsx
+++ b/data/feature/가성비추가feature.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M45"/>
+  <dimension ref="A1:AO45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,42 +462,182 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>price_grade</t>
+          <t>senti_score</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>senti_score</t>
+          <t>mango_dinning_likes</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>mango_dinning_likes</t>
+          <t>6M_score</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>6M_score</t>
+          <t>6M_num</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>6M_num</t>
+          <t>tastyscore_d1_p1_r1</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
+          <t>tastyscore_d2_p1_r1</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>tastyscore_d1_p2_r1</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>tastyscore_d1_p1_r2</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>tastyscore_d1_p1_r1_scaled</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>tastyscore_d2_p1_r1_scaled</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>tastyscore_d1_p2_r1_scaled</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>tastyscore_d1_p1_r2_scaled</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>d1_p1_r1_rank</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>d2_p1_r1_rank</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>d1_p2_r1_rank</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>d1_p1_r2_rank</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
           <t>review_score1</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>review_score2</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>review_score1_scaled</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>review_score2_scaled</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>review_score2_rank</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>review_score1_rank</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>cost-effective</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>review_score1_scaled_wrt_cat</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>cost_effectiveness</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>new_cost_effectiveness</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>review_score2_scaled_wrt_cat</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>리뷰좋음비율</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>리뷰좋음비율_post</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>리뷰좋음비율_post_scaled</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>review_score3</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>review_score3_scaled</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>new_cost_effectiveness_5scaled</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>review_score3_5scaled</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>realative_prices</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>new_cost_effectiveness_cat</t>
         </is>
       </c>
     </row>
@@ -522,28 +662,110 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.25</v>
+        <v>0.559554797315998</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5595547973159976</v>
+        <v>0.639600602863602</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6396006028636021</v>
+        <v>0.905095683133066</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9050956831330664</v>
+        <v>0.0291878172588832</v>
       </c>
       <c r="J2" t="n">
-        <v>0.02918781725888325</v>
+        <v>0.783359725142887</v>
       </c>
       <c r="K2" t="n">
-        <v>4.775574610170375</v>
+        <v>0.783359725142887</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3822383643326089</v>
+        <v>1.03335972514289</v>
       </c>
       <c r="M2" t="n">
-        <v>0.07644767286652179</v>
+        <v>1.31671945028578</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.253233171767201</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.105028144891727</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.272404207805731</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.3691248148383</v>
+      </c>
+      <c r="R2" t="n">
+        <v>38</v>
+      </c>
+      <c r="S2" t="n">
+        <v>40</v>
+      </c>
+      <c r="T2" t="n">
+        <v>40</v>
+      </c>
+      <c r="U2" t="n">
+        <v>24</v>
+      </c>
+      <c r="V2" t="n">
+        <v>4.77557461017038</v>
+      </c>
+      <c r="W2" t="n">
+        <v>4.24520763011326</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.559781264977988</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.492364776029454</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="n">
+        <v>0.382238364332609</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.0623899328101025</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>6.84728583786474</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.311949664050512</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>106.7967703909919</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.8673594025838263</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>6.84728583786474</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.594412818589964</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>1.383284591035674</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>2.97206409294982</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>1.75</v>
       </c>
     </row>
     <row r="3">
@@ -564,31 +786,113 @@
         <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>0.06105472029306266</v>
+        <v>0.0610547202930627</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5</v>
+        <v>0.591223768192659</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5912237681926586</v>
+        <v>0.655048982667671</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6550489826676714</v>
+        <v>0.716510903426792</v>
       </c>
       <c r="I3" t="n">
-        <v>0.716510903426792</v>
+        <v>0.0152284263959391</v>
       </c>
       <c r="J3" t="n">
-        <v>0.01522842639593909</v>
+        <v>1.05555774046383</v>
       </c>
       <c r="K3" t="n">
-        <v>4.498651141479707</v>
+        <v>1.11661246075689</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5491247498470779</v>
+        <v>1.55555774046383</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5491247498470779</v>
+        <v>1.55006076063459</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.428560249904844</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.243148160291371</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.493580111304413</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.496532356917365</v>
+      </c>
+      <c r="R3" t="n">
+        <v>18</v>
+      </c>
+      <c r="S3" t="n">
+        <v>23</v>
+      </c>
+      <c r="T3" t="n">
+        <v>19</v>
+      </c>
+      <c r="U3" t="n">
+        <v>11</v>
+      </c>
+      <c r="V3" t="n">
+        <v>4.49865114147971</v>
+      </c>
+      <c r="W3" t="n">
+        <v>3.92265579968299</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.5268520116256999</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.454345703262199</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="n">
+        <v>0.549124749847078</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.580713976145576</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>6.477362365500119</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.580713976145576</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>84.2</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>105.2967703909919</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.851568855272377</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>6.477362365500119</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.5619776032406011</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>1.307038241176373</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>2.809888016203006</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>1.75</v>
       </c>
     </row>
     <row r="4">
@@ -609,31 +913,113 @@
         <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1702663512172785</v>
+        <v>0.170266351217279</v>
       </c>
       <c r="F4" t="n">
-        <v>0.25</v>
+        <v>0.597157407586701</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5971574075867011</v>
+        <v>0.315749811605124</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3157498116051243</v>
+        <v>0.903060289536376</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9030602895363756</v>
+        <v>0.0317258883248731</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0317258883248731</v>
+        <v>0.882189700480547</v>
       </c>
       <c r="K4" t="n">
+        <v>1.05245605169782</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.13218970048055</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.34411304974381</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.316891133372604</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.216557878321449</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.314263442132052</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.384082094243434</v>
+      </c>
+      <c r="R4" t="n">
+        <v>30</v>
+      </c>
+      <c r="S4" t="n">
+        <v>27</v>
+      </c>
+      <c r="T4" t="n">
+        <v>39</v>
+      </c>
+      <c r="U4" t="n">
+        <v>21</v>
+      </c>
+      <c r="V4" t="n">
         <v>4.6056776859993</v>
       </c>
-      <c r="L4" t="n">
-        <v>0.3538879082612484</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.07077758165224969</v>
+      <c r="W4" t="n">
+        <v>4.04024616673747</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.539578647676335</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.468206039183434</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="n">
+        <v>0.353887908261248</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.0558409676405838</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>6.967609649104806</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.279204838202919</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>96</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>117.0967703909919</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.975787827455778</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>6.967609649104806</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.6049629161663105</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>1.408084994615288</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>3.024814580831552</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>1.75</v>
       </c>
     </row>
     <row r="5">
@@ -643,7 +1029,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -657,28 +1043,110 @@
         <v>0.00770815843699916</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5</v>
+        <v>0.408035810664867</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4080358106648674</v>
+        <v>0.455162019593067</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4551620195930671</v>
+        <v>0.49580292520353</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4958029252035301</v>
+        <v>0.270304568527919</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2703045685279188</v>
+        <v>0.915034489434345</v>
       </c>
       <c r="K5" t="n">
-        <v>3.889824818243353</v>
+        <v>0.922742647871344</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3194851977292857</v>
+        <v>1.41503448943434</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3194851977292857</v>
+        <v>1.32236082043169</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.338046985198074</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.162796827264976</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.43406177516153</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.372205079979414</v>
+      </c>
+      <c r="R5" t="n">
+        <v>28</v>
+      </c>
+      <c r="S5" t="n">
+        <v>36</v>
+      </c>
+      <c r="T5" t="n">
+        <v>28</v>
+      </c>
+      <c r="U5" t="n">
+        <v>23</v>
+      </c>
+      <c r="V5" t="n">
+        <v>3.88982481824335</v>
+      </c>
+      <c r="W5" t="n">
+        <v>3.75209357610641</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.454455849826259</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.434241592921692</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="n">
+        <v>0.319485197729286</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.194577249291393</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>6.00862767063902</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.389154498582787</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>57.80322960900811</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.3516028534682703</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>4.806902136511216</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0.415510181442624</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>1.210425530155037</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>2.07755090721312</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>1.75</v>
       </c>
     </row>
     <row r="6">
@@ -688,7 +1156,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -699,31 +1167,113 @@
         <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1643898343890712</v>
+        <v>0.164389834389071</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5</v>
+        <v>0.467725244595198</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4677252445951985</v>
+        <v>0.550113036925396</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5501130369253956</v>
+        <v>0.605733078823637</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6057330788236368</v>
+        <v>0.380710659898477</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3807106598984773</v>
+        <v>1.16546033944975</v>
       </c>
       <c r="K6" t="n">
-        <v>4.774612152648896</v>
+        <v>1.32985017383882</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7099931198877429</v>
+        <v>1.66546033944975</v>
       </c>
       <c r="M6" t="n">
-        <v>0.7099931198877429</v>
+        <v>1.66653084451042</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.499350264803429</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.331526718265984</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.540129132775941</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.56012661328877</v>
+      </c>
+      <c r="R6" t="n">
+        <v>9</v>
+      </c>
+      <c r="S6" t="n">
+        <v>13</v>
+      </c>
+      <c r="T6" t="n">
+        <v>12</v>
+      </c>
+      <c r="U6" t="n">
+        <v>10</v>
+      </c>
+      <c r="V6" t="n">
+        <v>4.7746121526489</v>
+      </c>
+      <c r="W6" t="n">
+        <v>4.68759756795217</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.559666818168133</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.544509125096587</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="n">
+        <v>0.7099931198877431</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.333821910901833</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>5.451860057826316</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.667643821803667</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>69.7</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>48.6032296090081</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.2547541632913815</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>5.451860057826316</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.4720606591276769</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>1.095668015781895</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>2.360303295638384</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="7">
@@ -733,7 +1283,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -744,31 +1294,113 @@
         <v>6</v>
       </c>
       <c r="E7" t="n">
-        <v>0.08952148362970312</v>
+        <v>0.08952148362970309</v>
       </c>
       <c r="F7" t="n">
+        <v>0.55515142580549</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.103051996985682</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.286533559898047</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.107868020304569</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.10267273437815</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.19219421800785</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.85267273437815</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.3658239851266</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.458907768088367</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.274473795041828</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.619422560517127</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.395936561458101</v>
+      </c>
+      <c r="R7" t="n">
+        <v>13</v>
+      </c>
+      <c r="S7" t="n">
+        <v>18</v>
+      </c>
+      <c r="T7" t="n">
+        <v>9</v>
+      </c>
+      <c r="U7" t="n">
+        <v>19</v>
+      </c>
+      <c r="V7" t="n">
+        <v>3.22032888091744</v>
+      </c>
+      <c r="W7" t="n">
+        <v>2.77304547541652</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.374845402063312</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.318841531687757</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>27</v>
+      </c>
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="n">
+        <v>0.0989621986525188</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.0187186940309911</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>2.341089493626122</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0.0748747761239644</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>55.2032296090081</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0.3242325714617582</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>3.745743189801796</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0.3224668318643695</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0.4544951287144863</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>1.612334159321848</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO7" t="n">
         <v>0.75</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.5551514258054904</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.103051996985682</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.2865335598980465</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.1078680203045686</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3.220328880917442</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.0989621986525188</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.0989621986525188</v>
       </c>
     </row>
     <row r="8">
@@ -792,28 +1424,110 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
+        <v>0.35488489131129</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.709871891484552</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.42188661360891</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.284263959390863</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.9427268389489</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.9427268389489</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2.4427268389489</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2.38545367789781</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.869338772112327</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.952668298297214</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2</v>
+      </c>
+      <c r="V8" t="n">
+        <v>3.82597656212012</v>
+      </c>
+      <c r="W8" t="n">
+        <v>3.75535563019969</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.446863588282214</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.434626090110184</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="n">
+        <v>0.566890983902154</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.532911957729406</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>12.46221891891916</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0.532911957729406</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>81.7</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>102.7967703909919</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0.8252512764199615</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>6.231109459459579</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0.5403859318963221</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>2.540600047116438</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>2.70192965948161</v>
+      </c>
+      <c r="AN8" t="n">
         <v>0.5</v>
       </c>
-      <c r="G8" t="n">
-        <v>0.3548848913112901</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.7098718914845517</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.4218866136089097</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.284263959390863</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3.82597656212012</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.5668909839021542</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.5668909839021542</v>
+      <c r="AO8" t="n">
+        <v>3.25</v>
       </c>
     </row>
     <row r="9">
@@ -834,31 +1548,113 @@
         <v>8</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2155994810348775</v>
+        <v>0.215599481034877</v>
       </c>
       <c r="F9" t="n">
+        <v>0.534714903625967</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.541806112820735</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.824873096446701</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.44094800925823</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.6565474902931</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.94094800925823</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2.16629653748158</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.676796261804984</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.46692977293724</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.656811373008488</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.833005506707643</v>
+      </c>
+      <c r="R9" t="n">
+        <v>6</v>
+      </c>
+      <c r="S9" t="n">
+        <v>6</v>
+      </c>
+      <c r="T9" t="n">
+        <v>7</v>
+      </c>
+      <c r="U9" t="n">
+        <v>3</v>
+      </c>
+      <c r="V9" t="n">
+        <v>6.69709112948544</v>
+      </c>
+      <c r="W9" t="n">
+        <v>6.98724932230617</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.788270762759817</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.815568282539593</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>16.02095357617618</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>56.80322960900811</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0.3410758219273041</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>8.010476788088088</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0.6964024239582248</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>3.274104536569838</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>3.482012119791124</v>
+      </c>
+      <c r="AN9" t="n">
         <v>0.5</v>
       </c>
-      <c r="G9" t="n">
-        <v>0.5347149036259666</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.5418061128207352</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.8248730964467007</v>
-      </c>
-      <c r="K9" t="n">
-        <v>6.69709112948544</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
+      <c r="AO9" t="n">
+        <v>4.25</v>
       </c>
     </row>
     <row r="10">
@@ -879,31 +1675,113 @@
         <v>9</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2307105243074105</v>
+        <v>0.230710524307411</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5</v>
+        <v>0.674294719709249</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6742947197092493</v>
+        <v>0.4267143933685</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4267143933685004</v>
+        <v>0.923472843017744</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9234728430177443</v>
+        <v>0.0685279187817259</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0685279187817259</v>
+        <v>1.25396299302672</v>
       </c>
       <c r="K10" t="n">
-        <v>5.176422714586164</v>
+        <v>1.48467351733413</v>
       </c>
       <c r="L10" t="n">
-        <v>0.7261139382163533</v>
+        <v>1.75396299302672</v>
       </c>
       <c r="M10" t="n">
-        <v>0.7261139382163533</v>
+        <v>1.77721546174602</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.5563562339350639</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.395694841442518</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.577614251050254</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.620561925865305</v>
+      </c>
+      <c r="R10" t="n">
+        <v>8</v>
+      </c>
+      <c r="S10" t="n">
+        <v>8</v>
+      </c>
+      <c r="T10" t="n">
+        <v>11</v>
+      </c>
+      <c r="U10" t="n">
+        <v>8</v>
+      </c>
+      <c r="V10" t="n">
+        <v>5.17642271458616</v>
+      </c>
+      <c r="W10" t="n">
+        <v>4.57065591365864</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.607446523717168</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.530725252724267</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB10" t="inlineStr"/>
+      <c r="AC10" t="n">
+        <v>0.7261139382163529</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.782988739769824</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>7.409592331081856</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.782988739769824</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>93.2</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>114.2967703909919</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0.9463121391410726</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>7.409592331081856</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0.6437163463798015</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>1.499183745355166</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>3.218581731899008</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -924,31 +1802,113 @@
         <v>10</v>
       </c>
       <c r="E11" t="n">
-        <v>0.09425322445241548</v>
+        <v>0.0942532244524155</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5</v>
+        <v>0.75870208806037</v>
       </c>
       <c r="G11" t="n">
-        <v>0.7587020880603697</v>
+        <v>0.356254709871892</v>
       </c>
       <c r="H11" t="n">
-        <v>0.3562547098718915</v>
+        <v>0.479641694046078</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4796416940460784</v>
+        <v>0.269035532994924</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2690355329949239</v>
+        <v>1.06016173069573</v>
       </c>
       <c r="K11" t="n">
-        <v>5.157453049190299</v>
+        <v>1.15441495514815</v>
       </c>
       <c r="L11" t="n">
-        <v>0.7370249670060572</v>
+        <v>1.56016173069573</v>
       </c>
       <c r="M11" t="n">
-        <v>0.7370249670060572</v>
+        <v>1.52607023693905</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.431525753360783</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.258815791939901</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.495530121969648</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.483433203352701</v>
+      </c>
+      <c r="R11" t="n">
+        <v>17</v>
+      </c>
+      <c r="S11" t="n">
+        <v>20</v>
+      </c>
+      <c r="T11" t="n">
+        <v>18</v>
+      </c>
+      <c r="U11" t="n">
+        <v>13</v>
+      </c>
+      <c r="V11" t="n">
+        <v>5.1574530491903</v>
+      </c>
+      <c r="W11" t="n">
+        <v>4.66778649412485</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.605190821371744</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.542174000671983</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="n">
+        <v>0.737024967006057</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0.683096865591681</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>18.20624284931373</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0.683096865591681</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>86.09999999999999</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>107.1967703909919</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0.8715702152002128</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>7.282497139725492</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0.6325725282404407</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>3.724522914723449</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>3.162862641202204</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>4.75</v>
       </c>
     </row>
     <row r="12">
@@ -958,7 +1918,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -969,31 +1929,113 @@
         <v>11</v>
       </c>
       <c r="E12" t="n">
-        <v>0.04899641303518278</v>
+        <v>0.0489964130351828</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5</v>
+        <v>0.232615588769605</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2326155887696053</v>
+        <v>0.20723436322532</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2072343632253203</v>
+        <v>0.799723087573554</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7997230875735544</v>
+        <v>0.0926395939086295</v>
       </c>
       <c r="J12" t="n">
-        <v>0.09263959390862946</v>
+        <v>0.8820495714044601</v>
       </c>
       <c r="K12" t="n">
-        <v>3.015061675176738</v>
+        <v>0.931045984439643</v>
       </c>
       <c r="L12" t="n">
-        <v>0.08846409578645485</v>
+        <v>1.38204957140446</v>
       </c>
       <c r="M12" t="n">
-        <v>0.08846409578645485</v>
+        <v>1.21510272977374</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.316800874002257</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.166238230296728</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.420091080457518</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.313640697708675</v>
+      </c>
+      <c r="R12" t="n">
+        <v>31</v>
+      </c>
+      <c r="S12" t="n">
+        <v>35</v>
+      </c>
+      <c r="T12" t="n">
+        <v>30</v>
+      </c>
+      <c r="U12" t="n">
+        <v>29</v>
+      </c>
+      <c r="V12" t="n">
+        <v>3.01506167517674</v>
+      </c>
+      <c r="W12" t="n">
+        <v>2.87508568031576</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.350436868345636</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0.330868975370451</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="n">
+        <v>0.08846409578645489</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0.0310192538850175</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>6.497188576829457</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0.0930577616550525</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>56.80322960900811</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0.3410758219273041</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>3.898313146097674</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0.335844299794877</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>1.311124697858179</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>1.679221498974385</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>1.75</v>
       </c>
     </row>
     <row r="13">
@@ -1014,31 +2056,113 @@
         <v>12</v>
       </c>
       <c r="E13" t="n">
-        <v>0.09020834923300007</v>
+        <v>0.0902083492330001</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5</v>
+        <v>0.398223652545317</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3982236525453167</v>
+        <v>0.211567445365486</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2115674453654861</v>
+        <v>0.198589932775865</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1985899327758647</v>
+        <v>0.0647208121827411</v>
       </c>
       <c r="J13" t="n">
-        <v>0.06472081218274113</v>
+        <v>0.808483809950352</v>
       </c>
       <c r="K13" t="n">
-        <v>2.395804357646706</v>
+        <v>0.898692159183352</v>
       </c>
       <c r="L13" t="n">
+        <v>1.30848380995035</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.0267592706677</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.269415995051131</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.152828855473735</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.388932452353233</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.210802596921906</v>
+      </c>
+      <c r="R13" t="n">
+        <v>37</v>
+      </c>
+      <c r="S13" t="n">
+        <v>37</v>
+      </c>
+      <c r="T13" t="n">
+        <v>36</v>
+      </c>
+      <c r="U13" t="n">
+        <v>41</v>
+      </c>
+      <c r="V13" t="n">
+        <v>2.39580435764671</v>
+      </c>
+      <c r="W13" t="n">
+        <v>2.06230151728413</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.276800346328851</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0.235066387001474</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>37</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>35</v>
+      </c>
+      <c r="AB13" t="inlineStr"/>
+      <c r="AC13" t="n">
         <v>0</v>
       </c>
-      <c r="M13" t="n">
+      <c r="AD13" t="n">
         <v>0</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>2.867619430168043</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>71</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>49.9032296090081</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0.2684393042946375</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>2.867619430168043</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>0.2454721684410138</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>0.5630202393173642</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>1.227360842205069</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>0.75</v>
       </c>
     </row>
     <row r="14">
@@ -1059,31 +2183,113 @@
         <v>13</v>
       </c>
       <c r="E14" t="n">
-        <v>0.06067312829123101</v>
+        <v>0.060673128291231</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5</v>
+        <v>0.220379864610234</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2203798646102335</v>
+        <v>0.0455915599095705</v>
       </c>
       <c r="H14" t="n">
-        <v>0.04559155990957046</v>
+        <v>0.710376228133237</v>
       </c>
       <c r="I14" t="n">
-        <v>0.7103762281332373</v>
+        <v>0.0456852791878173</v>
       </c>
       <c r="J14" t="n">
-        <v>0.04568527918781726</v>
+        <v>0.816181361251446</v>
       </c>
       <c r="K14" t="n">
-        <v>2.484919312180431</v>
+        <v>0.876854489542677</v>
       </c>
       <c r="L14" t="n">
+        <v>1.31618136125145</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.07168959421166</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.274374110476198</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.143778009239854</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.392192734494866</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.235335167168448</v>
+      </c>
+      <c r="R14" t="n">
+        <v>35</v>
+      </c>
+      <c r="S14" t="n">
+        <v>38</v>
+      </c>
+      <c r="T14" t="n">
+        <v>34</v>
+      </c>
+      <c r="U14" t="n">
+        <v>38</v>
+      </c>
+      <c r="V14" t="n">
+        <v>2.48491931218043</v>
+      </c>
+      <c r="W14" t="n">
+        <v>2.31022472675801</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.287397096864995</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0.264289010010945</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>33</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB14" t="inlineStr"/>
+      <c r="AC14" t="n">
         <v>0</v>
       </c>
-      <c r="M14" t="n">
-        <v>0</v>
+      <c r="AD14" t="n">
+        <v>0.000563014573996501</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>4.988097561604451</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0.0028150728699825</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>88.09999999999999</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>109.1967703909919</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0.8926242782821452</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>4.988097561604451</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>0.4313975556491074</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>1.000080143748454</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>2.156987778245537</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>1.25</v>
       </c>
     </row>
     <row r="15">
@@ -1093,7 +2299,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1104,31 +2310,113 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>0.02442188811722506</v>
+        <v>0.0244218881172251</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5</v>
+        <v>0.452459581467883</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4524595814678825</v>
+        <v>0.0531273549359457</v>
       </c>
       <c r="H15" t="n">
-        <v>0.05312735493594574</v>
+        <v>0.527762506871908</v>
       </c>
       <c r="I15" t="n">
-        <v>0.5277625068719081</v>
+        <v>0.119289340101523</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1192893401015229</v>
+        <v>0.81258158396154</v>
       </c>
       <c r="K15" t="n">
+        <v>0.837003472078765</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.31258158396154</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.10074127980585</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.272055436574622</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.127261346186314</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.390668056171453</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.251197784247596</v>
+      </c>
+      <c r="R15" t="n">
+        <v>36</v>
+      </c>
+      <c r="S15" t="n">
+        <v>39</v>
+      </c>
+      <c r="T15" t="n">
+        <v>35</v>
+      </c>
+      <c r="U15" t="n">
+        <v>37</v>
+      </c>
+      <c r="V15" t="n">
         <v>3.27635871485586</v>
       </c>
-      <c r="L15" t="n">
-        <v>0.1174176758690421</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.1174176758690421</v>
+      <c r="W15" t="n">
+        <v>2.9431884734895</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0.38150796701589</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0.338896228063055</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB15" t="inlineStr"/>
+      <c r="AC15" t="n">
+        <v>0.117417675869042</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0.0647457982284536</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>4.92643882946637</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0.129491596456907</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>56.00322960900809</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0.3326541966945311</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>3.941151063573096</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>0.3396003660686711</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>0.9873714252872285</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>1.698001830343356</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>1.25</v>
       </c>
     </row>
     <row r="16">
@@ -1149,31 +2437,113 @@
         <v>15</v>
       </c>
       <c r="E16" t="n">
-        <v>0.02159810730367092</v>
+        <v>0.0215981073036709</v>
       </c>
       <c r="F16" t="n">
-        <v>0.25</v>
+        <v>0.655659343369155</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6556593433691549</v>
+        <v>0.0171439336850038</v>
       </c>
       <c r="H16" t="n">
-        <v>0.01714393368500377</v>
+        <v>0.8077032002265651</v>
       </c>
       <c r="I16" t="n">
-        <v>0.8077032002265652</v>
+        <v>0.0355329949238579</v>
       </c>
       <c r="J16" t="n">
-        <v>0.03553299492385787</v>
+        <v>0.650607975354816</v>
       </c>
       <c r="K16" t="n">
-        <v>4.361786692386327</v>
+        <v>0.672206082658487</v>
       </c>
       <c r="L16" t="n">
+        <v>0.900607975354816</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.02961784340596</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.167725654820176</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.0589593773439208</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.216177475150759</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.21236341667513</v>
+      </c>
+      <c r="R16" t="n">
+        <v>43</v>
+      </c>
+      <c r="S16" t="n">
+        <v>43</v>
+      </c>
+      <c r="T16" t="n">
+        <v>42</v>
+      </c>
+      <c r="U16" t="n">
+        <v>40</v>
+      </c>
+      <c r="V16" t="n">
+        <v>4.36178669238633</v>
+      </c>
+      <c r="W16" t="n">
+        <v>3.74166034394103</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0.5105773197751819</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0.433011831452461</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB16" t="inlineStr"/>
+      <c r="AC16" t="n">
         <v>0.313190167943933</v>
       </c>
-      <c r="M16" t="n">
-        <v>0.0626380335887866</v>
+      <c r="AD16" t="n">
+        <v>0.0463005002697945</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>6.466904820721814</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0.231502501348972</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>89.59999999999999</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>110.6967703909919</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0.9084148255935944</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>6.466904820721814</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>0.5610606765185908</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>1.304882796395486</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>2.805303382592954</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>1.75</v>
       </c>
     </row>
     <row r="17">
@@ -1183,7 +2553,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1194,31 +2564,113 @@
         <v>16</v>
       </c>
       <c r="E17" t="n">
-        <v>0.06754178432420056</v>
+        <v>0.0675417843242006</v>
       </c>
       <c r="F17" t="n">
-        <v>0.75</v>
+        <v>0.375544577557162</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3755445775571622</v>
+        <v>0.0762999246420497</v>
       </c>
       <c r="H17" t="n">
-        <v>0.07629992464204974</v>
+        <v>0.7728670485378361</v>
       </c>
       <c r="I17" t="n">
-        <v>0.7728670485378362</v>
+        <v>0.0482233502538071</v>
       </c>
       <c r="J17" t="n">
-        <v>0.04822335025380711</v>
+        <v>1.13577550957191</v>
       </c>
       <c r="K17" t="n">
-        <v>3.268882382707792</v>
+        <v>1.20331729389611</v>
       </c>
       <c r="L17" t="n">
-        <v>0.4828530584701072</v>
+        <v>1.88577550957191</v>
       </c>
       <c r="M17" t="n">
-        <v>0.4828530584701072</v>
+        <v>1.45400923481963</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.480229792961057</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.279083867964853</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.633443173382334</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.444086912093494</v>
+      </c>
+      <c r="R17" t="n">
+        <v>11</v>
+      </c>
+      <c r="S17" t="n">
+        <v>17</v>
+      </c>
+      <c r="T17" t="n">
+        <v>8</v>
+      </c>
+      <c r="U17" t="n">
+        <v>15</v>
+      </c>
+      <c r="V17" t="n">
+        <v>3.26888238270779</v>
+      </c>
+      <c r="W17" t="n">
+        <v>2.94156115540444</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0.380618948701142</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0.338704416642828</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB17" t="inlineStr"/>
+      <c r="AC17" t="n">
+        <v>0.482853058470107</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0.103824665541228</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>1.946076051776841</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0.415298662164912</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>75.59999999999999</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>54.50322960900809</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0.3168636493830818</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>3.892152103553681</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>0.3353040941669032</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>0.3730773887320917</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>1.676520470834516</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="18">
@@ -1239,31 +2691,113 @@
         <v>17</v>
       </c>
       <c r="E18" t="n">
-        <v>0.7733343509120049</v>
+        <v>0.773334350912005</v>
       </c>
       <c r="F18" t="n">
+        <v>0.371382984948836</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.110964581763376</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.7793502447708049</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.0862944162436548</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1.61033240784367</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2.38366675875568</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2.11033240784367</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.94733046477534</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.785899451448275</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.7682918138891049</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.728553789288434</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.713447040697044</v>
+      </c>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="n">
+        <v>4</v>
+      </c>
+      <c r="T18" t="n">
+        <v>4</v>
+      </c>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>3.41408025983129</v>
+      </c>
+      <c r="W18" t="n">
+        <v>3.12899169112611</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0.397884577015783</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0.36079678910558</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>22</v>
+      </c>
+      <c r="AB18" t="inlineStr"/>
+      <c r="AC18" t="n">
+        <v>0.50475622820609</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0.442386979520705</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>11.36739651388649</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0.442386979520705</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>84.2</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>105.2967703909919</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0.851568855272377</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>5.683698256943244</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>0.4923884362933121</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>2.314941989804403</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>2.461942181466561</v>
+      </c>
+      <c r="AN18" t="n">
         <v>0.5</v>
       </c>
-      <c r="G18" t="n">
-        <v>0.3713829849488357</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.110964581763376</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0.7793502447708054</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.08629441624365483</v>
-      </c>
-      <c r="K18" t="n">
-        <v>3.414080259831294</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0.5047562282060902</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.5047562282060902</v>
+      <c r="AO18" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -1284,31 +2818,113 @@
         <v>18</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3899870258719377</v>
+        <v>0.389987025871938</v>
       </c>
       <c r="F19" t="n">
+        <v>0.172372549962615</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.158063300678222</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.465851905104242</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.016497461928934</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1.09318333029044</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1.48317035616238</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.59318333029044</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.29637963470894</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.452795491736889</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.395071840872673</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.509516353075568</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.358018997762397</v>
+      </c>
+      <c r="R19" t="n">
+        <v>14</v>
+      </c>
+      <c r="S19" t="n">
+        <v>9</v>
+      </c>
+      <c r="T19" t="n">
+        <v>15</v>
+      </c>
+      <c r="U19" t="n">
+        <v>25</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.82874969652397</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1.67287460849029</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0.209371295663722</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0.189164771861947</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB19" t="inlineStr"/>
+      <c r="AC19" t="n">
+        <v>0.265608348748964</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0.231942286025283</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>4.552147031575298</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0.231942286025283</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>64.59999999999999</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>43.50322960900809</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0.2010663024324539</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>2.276073515787649</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>0.1936049024918771</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>0.9102247030502022</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>0.9680245124593857</v>
+      </c>
+      <c r="AN19" t="n">
         <v>0.5</v>
       </c>
-      <c r="G19" t="n">
-        <v>0.1723725499626152</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.1580633006782216</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0.465851905104242</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.01649746192893401</v>
-      </c>
-      <c r="K19" t="n">
-        <v>1.828749696523968</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0.2656083487489643</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.2656083487489643</v>
+      <c r="AO19" t="n">
+        <v>1.25</v>
       </c>
     </row>
     <row r="20">
@@ -1329,31 +2945,113 @@
         <v>19</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1031824772952759</v>
+        <v>0.103182477295276</v>
       </c>
       <c r="F20" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0.103428786737001</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1034287867370008</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0.0406091370558376</v>
       </c>
       <c r="J20" t="n">
-        <v>0.04060913705583757</v>
+        <v>1.13919195824349</v>
       </c>
       <c r="K20" t="n">
-        <v>6.225256197904514</v>
+        <v>1.24237443553876</v>
       </c>
       <c r="L20" t="n">
-        <v>1</v>
+        <v>1.63919195824349</v>
       </c>
       <c r="M20" t="n">
-        <v>1</v>
+        <v>1.67520143919169</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.4824303819789</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.29527150103922</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.529003213534038</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.564860876394831</v>
+      </c>
+      <c r="R20" t="n">
+        <v>10</v>
+      </c>
+      <c r="S20" t="n">
+        <v>16</v>
+      </c>
+      <c r="T20" t="n">
+        <v>13</v>
+      </c>
+      <c r="U20" t="n">
+        <v>9</v>
+      </c>
+      <c r="V20" t="n">
+        <v>6.22525619790451</v>
+      </c>
+      <c r="W20" t="n">
+        <v>5.26586533496035</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0.732164387680992</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0.612669346923616</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB20" t="inlineStr"/>
+      <c r="AC20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>8.265865334960353</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>119.3967703909919</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>8.265865334960353</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>0.7187951163240608</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>1.675673467976614</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>3.593975581620304</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>2.25</v>
       </c>
     </row>
     <row r="21">
@@ -1374,31 +3072,113 @@
         <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1328703350377776</v>
+        <v>0.132870335037778</v>
       </c>
       <c r="F21" t="n">
-        <v>0.5</v>
+        <v>0.452253534491954</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4522535344919536</v>
+        <v>0.08270535041446871</v>
       </c>
       <c r="H21" t="n">
-        <v>0.08270535041446872</v>
+        <v>0.373485635167878</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3734856351678784</v>
+        <v>0.0634517766497462</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0634517766497462</v>
+        <v>0.875844409218789</v>
       </c>
       <c r="K21" t="n">
-        <v>2.829046088667279</v>
+        <v>1.00871474425657</v>
       </c>
       <c r="L21" t="n">
-        <v>0.1131341374935286</v>
+        <v>1.37584440921879</v>
       </c>
       <c r="M21" t="n">
-        <v>0.1131341374935286</v>
+        <v>1.1188184833998</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.312804030182139</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.19842884467299</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.417462896679516</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.261068184281455</v>
+      </c>
+      <c r="R21" t="n">
+        <v>33</v>
+      </c>
+      <c r="S21" t="n">
+        <v>29</v>
+      </c>
+      <c r="T21" t="n">
+        <v>32</v>
+      </c>
+      <c r="U21" t="n">
+        <v>34</v>
+      </c>
+      <c r="V21" t="n">
+        <v>2.82904608866728</v>
+      </c>
+      <c r="W21" t="n">
+        <v>2.44024433082507</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0.328317564392793</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0.279614375802858</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>31</v>
+      </c>
+      <c r="AB21" t="inlineStr"/>
+      <c r="AC21" t="n">
+        <v>0.113134137493529</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0.1179757404724</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>4.982318458793043</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0.1179757404724</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>83.8</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>104.8967703909919</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0.8473580426559905</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>4.982318458793043</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>0.4308908388327455</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>0.9988889906377452</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>2.154454194163728</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>1.25</v>
       </c>
     </row>
     <row r="22">
@@ -1419,31 +3199,113 @@
         <v>21</v>
       </c>
       <c r="E22" t="n">
-        <v>0.09287949324582156</v>
+        <v>0.09287949324582161</v>
       </c>
       <c r="F22" t="n">
-        <v>0.5</v>
+        <v>0.513864361821913</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5138643618219132</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
+        <v>0.892828681135571</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.474619289340102</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1.06320757632022</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1.15608706956604</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.56320757632022</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.53353565939462</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.433487631051809</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.259508816916046</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.496820183666836</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.487509425965078</v>
+      </c>
+      <c r="R22" t="n">
+        <v>16</v>
+      </c>
+      <c r="S22" t="n">
+        <v>19</v>
+      </c>
+      <c r="T22" t="n">
+        <v>17</v>
+      </c>
+      <c r="U22" t="n">
+        <v>12</v>
+      </c>
+      <c r="V22" t="n">
+        <v>5.2649726775791</v>
+      </c>
+      <c r="W22" t="n">
+        <v>5.22572760509729</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0.6179760905304</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0.607938326577706</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB22" t="inlineStr"/>
+      <c r="AC22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0.8928286811355712</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.4746192893401016</v>
-      </c>
-      <c r="K22" t="n">
-        <v>5.264972677579101</v>
-      </c>
-      <c r="L22" t="n">
+      <c r="AD22" t="n">
         <v>0</v>
       </c>
-      <c r="M22" t="n">
+      <c r="AE22" t="n">
+        <v>7.875177454783115</v>
+      </c>
+      <c r="AF22" t="n">
         <v>0</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>87.2</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>108.2967703909919</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0.8831499498952755</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>7.875177454783115</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>0.6845392594384928</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>1.595147286149414</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>3.422696297192464</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -1453,7 +3315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1464,31 +3326,113 @@
         <v>22</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1611844615736854</v>
+        <v>0.161184461573685</v>
       </c>
       <c r="F23" t="n">
-        <v>0.5</v>
+        <v>0.229565109293158</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2295651092931577</v>
+        <v>0.361906556141673</v>
       </c>
       <c r="H23" t="n">
-        <v>0.3619065561416729</v>
+        <v>0.523524243150412</v>
       </c>
       <c r="I23" t="n">
-        <v>0.5235242431504119</v>
+        <v>0.118020304568528</v>
       </c>
       <c r="J23" t="n">
-        <v>0.118020304568528</v>
+        <v>0.969438514862128</v>
       </c>
       <c r="K23" t="n">
-        <v>2.681276393320711</v>
+        <v>1.13062297643581</v>
       </c>
       <c r="L23" t="n">
-        <v>0.03276582451582619</v>
+        <v>1.46943851486213</v>
       </c>
       <c r="M23" t="n">
-        <v>0.03276582451582619</v>
+        <v>1.27769256815057</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.373089484703196</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.248954962260346</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.457104489084063</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.34781560422136</v>
+      </c>
+      <c r="R23" t="n">
+        <v>25</v>
+      </c>
+      <c r="S23" t="n">
+        <v>22</v>
+      </c>
+      <c r="T23" t="n">
+        <v>25</v>
+      </c>
+      <c r="U23" t="n">
+        <v>27</v>
+      </c>
+      <c r="V23" t="n">
+        <v>2.68127639332071</v>
+      </c>
+      <c r="W23" t="n">
+        <v>2.56973158859608</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0.310746118538585</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0.294876994120854</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB23" t="inlineStr"/>
+      <c r="AC23" t="n">
+        <v>0.0327658245158262</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>0.0221370600663752</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>8.153393902093903</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>0.0442741201327504</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>46.30322960900811</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0.2305419907471593</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>3.261357560837561</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>0.2799954739719846</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>1.652491548309025</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>1.399977369859923</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>2.25</v>
       </c>
     </row>
     <row r="24">
@@ -1498,7 +3442,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1509,31 +3453,113 @@
         <v>23</v>
       </c>
       <c r="E24" t="n">
-        <v>0.06342059070441884</v>
+        <v>0.0634205907044188</v>
       </c>
       <c r="F24" t="n">
-        <v>0.75</v>
+        <v>0.741179322597566</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7411793225975658</v>
+        <v>0.07385079125847779</v>
       </c>
       <c r="H24" t="n">
-        <v>0.07385079125847778</v>
+        <v>0.798098500751986</v>
       </c>
       <c r="I24" t="n">
-        <v>0.7980985007519861</v>
+        <v>0.440355329949239</v>
       </c>
       <c r="J24" t="n">
-        <v>0.4403553299492386</v>
+        <v>1.32679157684374</v>
       </c>
       <c r="K24" t="n">
-        <v>5.955831073000429</v>
+        <v>1.39021216754815</v>
       </c>
       <c r="L24" t="n">
-        <v>1</v>
+        <v>2.07679157684374</v>
       </c>
       <c r="M24" t="n">
-        <v>1</v>
+        <v>1.84016256298305</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.603266285025941</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.356544365864062</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.714347638780665</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.654931902778624</v>
+      </c>
+      <c r="R24" t="n">
+        <v>7</v>
+      </c>
+      <c r="S24" t="n">
+        <v>11</v>
+      </c>
+      <c r="T24" t="n">
+        <v>6</v>
+      </c>
+      <c r="U24" t="n">
+        <v>6</v>
+      </c>
+      <c r="V24" t="n">
+        <v>5.95583107300043</v>
+      </c>
+      <c r="W24" t="n">
+        <v>5.6550070803521</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0.700126770069937</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0.6585373499515</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB24" t="inlineStr"/>
+      <c r="AC24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>6.891431438293951</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>86.09999999999999</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>107.1967703909919</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0.8715702152002128</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>8.269717725952741</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>0.7191328973538759</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>1.392383610553303</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>3.595664486769379</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>1.75</v>
       </c>
     </row>
     <row r="25">
@@ -1543,7 +3569,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1554,31 +3580,113 @@
         <v>24</v>
       </c>
       <c r="E25" t="n">
-        <v>0.07044188353812103</v>
+        <v>0.070441883538121</v>
       </c>
       <c r="F25" t="n">
-        <v>0.75</v>
+        <v>0.20964231378986</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2096423137898596</v>
+        <v>0.08063300678221549</v>
       </c>
       <c r="H25" t="n">
-        <v>0.08063300678221552</v>
+        <v>0.413480600396489</v>
       </c>
       <c r="I25" t="n">
-        <v>0.4134806003964888</v>
+        <v>0.0406091370558376</v>
       </c>
       <c r="J25" t="n">
-        <v>0.04060913705583757</v>
+        <v>1.00653314804422</v>
       </c>
       <c r="K25" t="n">
-        <v>1.867990873902144</v>
+        <v>1.07697503158234</v>
       </c>
       <c r="L25" t="n">
-        <v>0.2715278992670681</v>
+        <v>1.75653314804422</v>
       </c>
       <c r="M25" t="n">
-        <v>0.2715278992670681</v>
+        <v>1.19262441255032</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.396982728901674</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.226720021095742</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.578702834961817</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.301367229529261</v>
+      </c>
+      <c r="R25" t="n">
+        <v>22</v>
+      </c>
+      <c r="S25" t="n">
+        <v>26</v>
+      </c>
+      <c r="T25" t="n">
+        <v>10</v>
+      </c>
+      <c r="U25" t="n">
+        <v>31</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.86799087390214</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1.69895769716812</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0.214037504265822</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0.192239176509146</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>39</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>39</v>
+      </c>
+      <c r="AB25" t="inlineStr"/>
+      <c r="AC25" t="n">
+        <v>0.271527899267068</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0.0785706443898373</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>1.633725166128739</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0.235711933169512</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>48.2032296090081</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0.2505433506749949</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>2.450587749193109</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>0.2089064639360664</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>0.3086975461831615</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>1.044532319680332</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="26">
@@ -1588,7 +3696,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1599,31 +3707,113 @@
         <v>25</v>
       </c>
       <c r="E26" t="n">
-        <v>0.03029840494543234</v>
+        <v>0.0302984049454323</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>0.925701343359954</v>
       </c>
       <c r="G26" t="n">
-        <v>0.9257013433599544</v>
+        <v>0.141107761868877</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1411077618688772</v>
+        <v>0.816873301024871</v>
       </c>
       <c r="I26" t="n">
-        <v>0.816873301024871</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>1.75121900650886</v>
       </c>
       <c r="K26" t="n">
-        <v>8.477659737358437</v>
+        <v>1.78151741145429</v>
       </c>
       <c r="L26" t="n">
-        <v>1</v>
+        <v>2.75121900650886</v>
       </c>
       <c r="M26" t="n">
-        <v>1</v>
+        <v>2.47213960807228</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.876646754155803</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.518724838935641</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1</v>
+      </c>
+      <c r="R26" t="n">
+        <v>2</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1</v>
+      </c>
+      <c r="V26" t="n">
+        <v>8.47765973735844</v>
+      </c>
+      <c r="W26" t="n">
+        <v>8.551958393998479</v>
+      </c>
+      <c r="X26" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB26" t="inlineStr"/>
+      <c r="AC26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>14.34125707180154</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>95.8</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>116.8967703909919</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>0.9736824211475845</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>11.47300565744123</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>2.927895828829987</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>4.999999999999999</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>3.75</v>
       </c>
     </row>
     <row r="27">
@@ -1644,31 +3834,113 @@
         <v>26</v>
       </c>
       <c r="E27" t="n">
-        <v>0.09822178127146457</v>
+        <v>0.09822178127146459</v>
       </c>
       <c r="F27" t="n">
-        <v>0.5</v>
+        <v>0.737727447350772</v>
       </c>
       <c r="G27" t="n">
-        <v>0.737727447350772</v>
+        <v>0.0576488319517709</v>
       </c>
       <c r="H27" t="n">
-        <v>0.05764883195177091</v>
+        <v>0.635179243967081</v>
       </c>
       <c r="I27" t="n">
-        <v>0.6351792439670811</v>
+        <v>0.107868020304569</v>
       </c>
       <c r="J27" t="n">
-        <v>0.1078680203045686</v>
+        <v>0.982827667165013</v>
       </c>
       <c r="K27" t="n">
-        <v>4.602521170202727</v>
+        <v>1.08104944843648</v>
       </c>
       <c r="L27" t="n">
-        <v>0.5762487438430508</v>
+        <v>1.48282766716501</v>
       </c>
       <c r="M27" t="n">
-        <v>0.5762487438430508</v>
+        <v>1.36743355305856</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.381713651008145</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.22840870496386</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.462775437212528</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.396815407530039</v>
+      </c>
+      <c r="R27" t="n">
+        <v>23</v>
+      </c>
+      <c r="S27" t="n">
+        <v>25</v>
+      </c>
+      <c r="T27" t="n">
+        <v>23</v>
+      </c>
+      <c r="U27" t="n">
+        <v>18</v>
+      </c>
+      <c r="V27" t="n">
+        <v>4.60252117020273</v>
+      </c>
+      <c r="W27" t="n">
+        <v>3.97266174315652</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0.539203303149317</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0.460239886535565</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB27" t="inlineStr"/>
+      <c r="AC27" t="n">
+        <v>0.576248743843051</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0.596323449319676</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>6.521052090049077</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0.596323449319676</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>84</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>105.0967703909919</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>0.8494634489641839</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>6.521052090049077</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>0.5658083567076398</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>1.316043298362722</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>2.829041783538199</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>1.75</v>
       </c>
     </row>
     <row r="28">
@@ -1689,31 +3961,113 @@
         <v>27</v>
       </c>
       <c r="E28" t="n">
-        <v>0.2588720140425856</v>
+        <v>0.258872014042586</v>
       </c>
       <c r="F28" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
+        <v>0.0680105501130369</v>
+      </c>
+      <c r="H28" t="n">
         <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0.06801055011303693</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
+        <v>0.775874651570845</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1.03474666561343</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.27587465157085</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.792877289099104</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.248411916632463</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.209218041563056</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.375120909882153</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.0830998409731562</v>
+      </c>
+      <c r="R28" t="n">
+        <v>39</v>
+      </c>
+      <c r="S28" t="n">
+        <v>28</v>
+      </c>
+      <c r="T28" t="n">
+        <v>37</v>
+      </c>
+      <c r="U28" t="n">
+        <v>42</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0.0680105501130369</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0.0680105501130369</v>
+      </c>
+      <c r="X28" t="n">
         <v>0</v>
       </c>
-      <c r="K28" t="n">
-        <v>0.06801055011303693</v>
-      </c>
-      <c r="L28" t="n">
+      <c r="Y28" t="n">
         <v>0</v>
       </c>
-      <c r="M28" t="n">
+      <c r="Z28" t="n">
+        <v>44</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>44</v>
+      </c>
+      <c r="AB28" t="inlineStr"/>
+      <c r="AC28" t="n">
         <v>0</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0.1360211002260738</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>24.4032296090081</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>0.0680105501130369</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="29">
@@ -1734,31 +4088,113 @@
         <v>28</v>
       </c>
       <c r="E29" t="n">
-        <v>0.2558192780279325</v>
+        <v>0.255819278027932</v>
       </c>
       <c r="F29" t="n">
-        <v>0.5</v>
+        <v>0.623683334683087</v>
       </c>
       <c r="G29" t="n">
-        <v>0.6236833346830872</v>
+        <v>0.0574604370761115</v>
       </c>
       <c r="H29" t="n">
-        <v>0.05746043707611152</v>
+        <v>0.498442367601247</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4984423676012466</v>
+        <v>0.0177664974619289</v>
       </c>
       <c r="J29" t="n">
-        <v>0.01776649746192894</v>
+        <v>1.05515743723353</v>
       </c>
       <c r="K29" t="n">
-        <v>3.602378003396741</v>
+        <v>1.31097671526146</v>
       </c>
       <c r="L29" t="n">
-        <v>0.2248040650278313</v>
+        <v>1.55515743723353</v>
       </c>
       <c r="M29" t="n">
-        <v>0.2248040650278313</v>
+        <v>1.35449559643912</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.428302408216855</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.323704419719667</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.493410563688302</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.389751106528453</v>
+      </c>
+      <c r="R29" t="n">
+        <v>19</v>
+      </c>
+      <c r="S29" t="n">
+        <v>14</v>
+      </c>
+      <c r="T29" t="n">
+        <v>20</v>
+      </c>
+      <c r="U29" t="n">
+        <v>20</v>
+      </c>
+      <c r="V29" t="n">
+        <v>3.60237800339674</v>
+      </c>
+      <c r="W29" t="n">
+        <v>2.99646116617558</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0.420275254602076</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0.345175461936997</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB29" t="inlineStr"/>
+      <c r="AC29" t="n">
+        <v>0.224804065027831</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>0.146592418224722</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>14.05951062406345</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>0.146592418224722</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>86.5</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>107.5967703909919</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>0.8757810278165993</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>5.62380424962538</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>0.4871368770638496</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>2.869823984703589</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>2.435684385319248</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>3.75</v>
       </c>
     </row>
     <row r="30">
@@ -1768,7 +4204,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1779,31 +4215,113 @@
         <v>29</v>
       </c>
       <c r="E30" t="n">
-        <v>0.3739601617950088</v>
+        <v>0.373960161795009</v>
       </c>
       <c r="F30" t="n">
-        <v>0.5</v>
+        <v>0.134197240018944</v>
       </c>
       <c r="G30" t="n">
-        <v>0.134197240018944</v>
+        <v>0.0229841748304446</v>
       </c>
       <c r="H30" t="n">
-        <v>0.02298417483044461</v>
+        <v>0.830737279335412</v>
       </c>
       <c r="I30" t="n">
-        <v>0.8307372793354117</v>
+        <v>0.0355329949238579</v>
       </c>
       <c r="J30" t="n">
-        <v>0.03553299492385787</v>
+        <v>1.12982308407217</v>
       </c>
       <c r="K30" t="n">
-        <v>2.327846678348617</v>
+        <v>1.50378324586718</v>
       </c>
       <c r="L30" t="n">
-        <v>1</v>
+        <v>1.62982308407217</v>
       </c>
       <c r="M30" t="n">
-        <v>1</v>
+        <v>1.38568600634934</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.476395740866771</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.403615064496068</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.525035046002164</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.406781496291666</v>
+      </c>
+      <c r="R30" t="n">
+        <v>12</v>
+      </c>
+      <c r="S30" t="n">
+        <v>7</v>
+      </c>
+      <c r="T30" t="n">
+        <v>14</v>
+      </c>
+      <c r="U30" t="n">
+        <v>17</v>
+      </c>
+      <c r="V30" t="n">
+        <v>2.32784667834862</v>
+      </c>
+      <c r="W30" t="n">
+        <v>2.22918243325353</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0.268719429065244</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0.254736582886715</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>35</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>37</v>
+      </c>
+      <c r="AB30" t="inlineStr"/>
+      <c r="AC30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>2.936637527243023</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>102.5967703909919</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>0.8231458701117684</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>4.698620043588837</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>0.4060159123172649</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>0.5772458247947172</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>2.030079561586324</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>0.75</v>
       </c>
     </row>
     <row r="31">
@@ -1824,31 +4342,113 @@
         <v>30</v>
       </c>
       <c r="E31" t="n">
-        <v>0.07212088834618026</v>
+        <v>0.0721208883461803</v>
       </c>
       <c r="F31" t="n">
-        <v>0.5</v>
+        <v>0.390425962004552</v>
       </c>
       <c r="G31" t="n">
-        <v>0.3904259620045525</v>
+        <v>0.172004521477016</v>
       </c>
       <c r="H31" t="n">
-        <v>0.1720045214770158</v>
+        <v>0.522161681040187</v>
       </c>
       <c r="I31" t="n">
-        <v>0.5221616810401866</v>
+        <v>0.200507614213198</v>
       </c>
       <c r="J31" t="n">
-        <v>0.200507614213198</v>
+        <v>0.893395833029919</v>
       </c>
       <c r="K31" t="n">
-        <v>3.379554574215192</v>
+        <v>0.965516721376099</v>
       </c>
       <c r="L31" t="n">
-        <v>0.2568906093103545</v>
+        <v>1.39339583302992</v>
       </c>
       <c r="M31" t="n">
-        <v>0.2568906093103545</v>
+        <v>1.21467077771366</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.324109181875962</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.180524980884772</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.424896766409428</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.313404845984912</v>
+      </c>
+      <c r="R31" t="n">
+        <v>29</v>
+      </c>
+      <c r="S31" t="n">
+        <v>33</v>
+      </c>
+      <c r="T31" t="n">
+        <v>29</v>
+      </c>
+      <c r="U31" t="n">
+        <v>30</v>
+      </c>
+      <c r="V31" t="n">
+        <v>3.37955457421519</v>
+      </c>
+      <c r="W31" t="n">
+        <v>3.18963622642384</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0.393779092369828</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0.367944939520181</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB31" t="inlineStr"/>
+      <c r="AC31" t="n">
+        <v>0.256890609310355</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>0.351900187821901</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>3.99811224877004</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>0.351900187821901</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>50.00322960900809</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>0.269492007448734</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>3.99811224877004</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>0.3445947728755924</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>0.7960304627821659</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>1.722973864377962</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1869,31 +4469,113 @@
         <v>31</v>
       </c>
       <c r="E32" t="n">
-        <v>0.1000534228802564</v>
+        <v>0.100053422880256</v>
       </c>
       <c r="F32" t="n">
-        <v>0.5</v>
+        <v>0.981715951940773</v>
       </c>
       <c r="G32" t="n">
-        <v>0.9817159519407732</v>
+        <v>0.151092690278824</v>
       </c>
       <c r="H32" t="n">
-        <v>0.1510926902788244</v>
+        <v>0.567051493494595</v>
       </c>
       <c r="I32" t="n">
-        <v>0.5670514934945947</v>
+        <v>0.0621827411167513</v>
       </c>
       <c r="J32" t="n">
-        <v>0.06218274111675128</v>
+        <v>1.04056414208799</v>
       </c>
       <c r="K32" t="n">
-        <v>5.398607708381361</v>
+        <v>1.14061756496825</v>
       </c>
       <c r="L32" t="n">
-        <v>0.7841339899270019</v>
+        <v>1.54056414208799</v>
       </c>
       <c r="M32" t="n">
-        <v>0.7841339899270019</v>
+        <v>1.48107486129573</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.41890263432339</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.253097322020633</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.487229603316684</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.458865113771522</v>
+      </c>
+      <c r="R32" t="n">
+        <v>21</v>
+      </c>
+      <c r="S32" t="n">
+        <v>21</v>
+      </c>
+      <c r="T32" t="n">
+        <v>22</v>
+      </c>
+      <c r="U32" t="n">
+        <v>14</v>
+      </c>
+      <c r="V32" t="n">
+        <v>5.39860770838136</v>
+      </c>
+      <c r="W32" t="n">
+        <v>4.47907449755734</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0.633866768943589</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0.519930582862251</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB32" t="inlineStr"/>
+      <c r="AC32" t="n">
+        <v>0.784133989927002</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>0.7544013847759929</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>7.343275790678875</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>0.7544013847759929</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>94</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>115.0967703909919</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>0.9547337643738456</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>7.343275790678875</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>0.6379016538017775</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>1.485514988115451</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>3.189508269008888</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="33">
@@ -1903,7 +4585,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1917,28 +4599,110 @@
         <v>0.08921621002823781</v>
       </c>
       <c r="F33" t="n">
+        <v>0.146398623015661</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.0570836473247928</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.0519558645243468</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.0380710659898477</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.6625935102419001</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.751809720270138</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.1625935102419</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.735970810455562</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.17544572878615</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.091951921673771</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.327140913697386</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.0520281264897236</v>
+      </c>
+      <c r="R33" t="n">
+        <v>42</v>
+      </c>
+      <c r="S33" t="n">
+        <v>41</v>
+      </c>
+      <c r="T33" t="n">
+        <v>38</v>
+      </c>
+      <c r="U33" t="n">
+        <v>43</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0.8608030664056739</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0.75247550937986</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0.0942717702772948</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0.0806776481729707</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>43</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>43</v>
+      </c>
+      <c r="AB33" t="inlineStr"/>
+      <c r="AC33" t="n">
+        <v>0.119593133135168</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>0.0494610015495877</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>1.103025659694034</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>0.0989220030991753</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>56.6</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>35.5032296090081</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>0.1168500501047245</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>1.103025659694034</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>0.09075103494923512</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>0.1993130294907595</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>0.4537551747461755</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO33" t="n">
         <v>0.5</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0.1463986230156611</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0.05708364732479276</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0.05195586452434675</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.03807106598984773</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.8608030664056738</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0.1195931331351675</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.1195931331351675</v>
       </c>
     </row>
     <row r="34">
@@ -1962,28 +4726,110 @@
         <v>0.0816606883919713</v>
       </c>
       <c r="F34" t="n">
+        <v>0.421844167506563</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.0284476262245667</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.611077396124126</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.125634517766498</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.87841161529741</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.960072303689381</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1.37841161529741</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.17516254220285</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.31445760851632</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.178268486115581</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.418550231574033</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0.291832809851283</v>
+      </c>
+      <c r="R34" t="n">
+        <v>32</v>
+      </c>
+      <c r="S34" t="n">
+        <v>34</v>
+      </c>
+      <c r="T34" t="n">
+        <v>31</v>
+      </c>
+      <c r="U34" t="n">
+        <v>32</v>
+      </c>
+      <c r="V34" t="n">
+        <v>3.31488264179856</v>
+      </c>
+      <c r="W34" t="n">
+        <v>3.0186729920585</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0.386088886633932</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>0.347793562176607</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB34" t="inlineStr"/>
+      <c r="AC34" t="n">
+        <v>0.130106941676317</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>0.0307445068339721</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>1.940418437631815</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>0.153722534169861</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>72.8</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>51.7032296090081</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>0.2873879610683766</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>3.88083687526363</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>0.3343119650003785</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>0.3719112761177362</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>1.671559825001892</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO34" t="n">
         <v>0.5</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0.421844167506563</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0.02844762622456669</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0.6110773961241258</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.1256345177664975</v>
-      </c>
-      <c r="K34" t="n">
-        <v>3.314882641798563</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0.1301069416763167</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.02602138833526334</v>
       </c>
     </row>
     <row r="35">
@@ -2004,31 +4850,113 @@
         <v>34</v>
       </c>
       <c r="E35" t="n">
-        <v>0.02816148973517515</v>
+        <v>0.0281614897351752</v>
       </c>
       <c r="F35" t="n">
-        <v>0.5</v>
+        <v>0.58517202087472</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5851720208747198</v>
+        <v>0.0452147701582517</v>
       </c>
       <c r="H35" t="n">
-        <v>0.04521477015825169</v>
+        <v>0.6050198819745219</v>
       </c>
       <c r="I35" t="n">
-        <v>0.6050198819745218</v>
+        <v>0.565989847715736</v>
       </c>
       <c r="J35" t="n">
-        <v>0.5659898477157361</v>
+        <v>0.978510619915983</v>
       </c>
       <c r="K35" t="n">
-        <v>5.293912160753383</v>
+        <v>1.00667210965116</v>
       </c>
       <c r="L35" t="n">
-        <v>1</v>
+        <v>1.47851061991598</v>
       </c>
       <c r="M35" t="n">
+        <v>1.42885975009679</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.378932972098851</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.197582253803646</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.460946960661991</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.430354949980563</v>
+      </c>
+      <c r="R35" t="n">
+        <v>24</v>
+      </c>
+      <c r="S35" t="n">
+        <v>30</v>
+      </c>
+      <c r="T35" t="n">
+        <v>24</v>
+      </c>
+      <c r="U35" t="n">
+        <v>16</v>
+      </c>
+      <c r="V35" t="n">
+        <v>5.29391216075338</v>
+      </c>
+      <c r="W35" t="n">
+        <v>5.2747299875944</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0.621417314121292</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0.6137142204656471</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB35" t="inlineStr"/>
+      <c r="AC35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD35" t="n">
         <v>0.2</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>7.955760931903124</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>88.2</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>109.2967703909919</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>0.8936769814362417</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>7.955760931903124</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>0.6916048895735054</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>1.611756656595946</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>3.458024447867527</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -2049,31 +4977,113 @@
         <v>35</v>
       </c>
       <c r="E36" t="n">
-        <v>0.3913607570785316</v>
+        <v>0.391360757078532</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>0.329248197062215</v>
       </c>
       <c r="G36" t="n">
-        <v>0.3292481970622152</v>
+        <v>0.320836473247928</v>
       </c>
       <c r="H36" t="n">
-        <v>0.3208364732479276</v>
+        <v>0.5302984606614261</v>
       </c>
       <c r="I36" t="n">
-        <v>0.5302984606614261</v>
+        <v>0.106598984771574</v>
       </c>
       <c r="J36" t="n">
-        <v>0.1065989847715736</v>
+        <v>0.713106286014317</v>
       </c>
       <c r="K36" t="n">
-        <v>3.018223137134362</v>
+        <v>1.10446704309285</v>
       </c>
       <c r="L36" t="n">
-        <v>0.4450409904808596</v>
+        <v>0.713106286014317</v>
       </c>
       <c r="M36" t="n">
-        <v>0.08900819809617191</v>
+        <v>1.0348518149501</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.207981812395569</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.238114367330296</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.136761517351826</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.21522123661603</v>
+      </c>
+      <c r="R36" t="n">
+        <v>40</v>
+      </c>
+      <c r="S36" t="n">
+        <v>24</v>
+      </c>
+      <c r="T36" t="n">
+        <v>43</v>
+      </c>
+      <c r="U36" t="n">
+        <v>39</v>
+      </c>
+      <c r="V36" t="n">
+        <v>3.01822313713436</v>
+      </c>
+      <c r="W36" t="n">
+        <v>2.79557392484372</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0.350812801025731</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0.321496952235096</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>28</v>
+      </c>
+      <c r="AB36" t="inlineStr"/>
+      <c r="AC36" t="n">
+        <v>0.44504099048086</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>0.07883998412346011</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>1.55025894437874</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>0.394199920617301</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>79.7</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>58.6032296090081</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>0.3600244787010432</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>3.87564736094685</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>0.3338569438216807</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>0.2914940021520012</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>1.669284719108403</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="37">
@@ -2094,31 +5104,113 @@
         <v>36</v>
       </c>
       <c r="E37" t="n">
-        <v>0.3848736930473937</v>
+        <v>0.384873693047394</v>
       </c>
       <c r="F37" t="n">
-        <v>0.5</v>
+        <v>0.13395203769868</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1339520376986801</v>
+        <v>0.19216277317257</v>
       </c>
       <c r="H37" t="n">
-        <v>0.1921627731725697</v>
+        <v>0.274871545899584</v>
       </c>
       <c r="I37" t="n">
-        <v>0.2748715458995838</v>
+        <v>0.129441624365482</v>
       </c>
       <c r="J37" t="n">
-        <v>0.1294416243654823</v>
+        <v>1.06748068833147</v>
       </c>
       <c r="K37" t="n">
-        <v>1.666038888862905</v>
+        <v>1.45235438137887</v>
       </c>
       <c r="L37" t="n">
+        <v>1.56748068833147</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.25008768361555</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.436240010574506</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.382299843956243</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.498630051537091</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.332742960278778</v>
+      </c>
+      <c r="R37" t="n">
+        <v>15</v>
+      </c>
+      <c r="S37" t="n">
+        <v>10</v>
+      </c>
+      <c r="T37" t="n">
+        <v>16</v>
+      </c>
+      <c r="U37" t="n">
+        <v>28</v>
+      </c>
+      <c r="V37" t="n">
+        <v>1.6660388888629</v>
+      </c>
+      <c r="W37" t="n">
+        <v>1.66152847552971</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0.190023186837988</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0.187827407091517</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB37" t="inlineStr"/>
+      <c r="AC37" t="n">
         <v>0</v>
       </c>
-      <c r="M37" t="n">
+      <c r="AD37" t="n">
         <v>0</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>6.711889853279047</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>56.80322960900811</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>0.3410758219273041</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>2.684755941311619</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>0.2294385369369611</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>1.355377603830251</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>1.147192684684806</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>1.75</v>
       </c>
     </row>
     <row r="38">
@@ -2139,31 +5231,113 @@
         <v>37</v>
       </c>
       <c r="E38" t="n">
-        <v>0.1397389910707471</v>
+        <v>0.139738991070747</v>
       </c>
       <c r="F38" t="n">
+        <v>0.451156328996041</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.0572720422004522</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.422394826448866</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.0710659898477157</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.390211287944016</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.529950279014763</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.390211287944016</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.640683584817285</v>
+      </c>
+      <c r="N38" t="n">
         <v>0</v>
       </c>
-      <c r="G38" t="n">
-        <v>0.4511563289960408</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0.05727204220045215</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0.4223948264488664</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.07106598984771574</v>
-      </c>
-      <c r="K38" t="n">
-        <v>2.919884980625496</v>
-      </c>
-      <c r="L38" t="n">
+      <c r="O38" t="n">
         <v>0</v>
       </c>
-      <c r="M38" t="n">
+      <c r="P38" t="n">
         <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>44</v>
+      </c>
+      <c r="S38" t="n">
+        <v>44</v>
+      </c>
+      <c r="T38" t="n">
+        <v>44</v>
+      </c>
+      <c r="U38" t="n">
+        <v>44</v>
+      </c>
+      <c r="V38" t="n">
+        <v>2.9198849806255</v>
+      </c>
+      <c r="W38" t="n">
+        <v>2.53979464147717</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0.339119310094146</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0.291348336511239</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>31</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB38" t="inlineStr"/>
+      <c r="AC38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>2.640414832784701</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>90.09999999999999</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>111.1967703909919</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>0.9136783413640774</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>5.280829665569402</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>0.45706456393891</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>0.516190225771598</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>2.28532281969455</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>0.75</v>
       </c>
     </row>
     <row r="39">
@@ -2173,7 +5347,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -2184,31 +5358,113 @@
         <v>38</v>
       </c>
       <c r="E39" t="n">
-        <v>0.05281233305349919</v>
+        <v>0.0528123330534992</v>
       </c>
       <c r="F39" t="n">
-        <v>0.5</v>
+        <v>0.6552979587976659</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6552979587976657</v>
+        <v>0.0602863602110022</v>
       </c>
       <c r="H39" t="n">
-        <v>0.06028636021100225</v>
+        <v>0.710380287462775</v>
       </c>
       <c r="I39" t="n">
-        <v>0.7103802874627752</v>
+        <v>0.124365482233503</v>
       </c>
       <c r="J39" t="n">
-        <v>0.1243654822335026</v>
+        <v>0.940394855229736</v>
       </c>
       <c r="K39" t="n">
-        <v>4.475335217027723</v>
+        <v>0.993207188283235</v>
       </c>
       <c r="L39" t="n">
-        <v>0.5430361696991647</v>
+        <v>1.44039485522973</v>
       </c>
       <c r="M39" t="n">
-        <v>0.5430361696991647</v>
+        <v>1.32797737740597</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.354382000830591</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.192001578994582</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.444803106329564</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.375271796789954</v>
+      </c>
+      <c r="R39" t="n">
+        <v>27</v>
+      </c>
+      <c r="S39" t="n">
+        <v>31</v>
+      </c>
+      <c r="T39" t="n">
+        <v>27</v>
+      </c>
+      <c r="U39" t="n">
+        <v>22</v>
+      </c>
+      <c r="V39" t="n">
+        <v>4.47533521702772</v>
+      </c>
+      <c r="W39" t="n">
+        <v>3.94440274046356</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0.52407949116345</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0.456909007655477</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>16</v>
+      </c>
+      <c r="AB39" t="inlineStr"/>
+      <c r="AC39" t="n">
+        <v>0.543036169699165</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>0.293751167495807</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>3.296926295074694</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>0.587502334991614</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>87.2</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>108.2967703909919</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>0.8831499498952755</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>6.593852590149389</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>0.5721915685735998</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>0.6515063286412893</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>2.860957842867999</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -2218,7 +5474,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -2229,31 +5485,113 @@
         <v>39</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9020834923300008</v>
+        <v>0.902083492330001</v>
       </c>
       <c r="F40" t="n">
-        <v>0.5</v>
+        <v>0.24455197781026</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2445519778102599</v>
+        <v>0.0346646571213263</v>
       </c>
       <c r="H40" t="n">
-        <v>0.0346646571213263</v>
+        <v>0.398753894080997</v>
       </c>
       <c r="I40" t="n">
-        <v>0.3987538940809974</v>
+        <v>0.07868020304568531</v>
       </c>
       <c r="J40" t="n">
-        <v>0.07868020304568529</v>
+        <v>1.59124617534457</v>
       </c>
       <c r="K40" t="n">
-        <v>2.046420965661417</v>
+        <v>2.49332966767457</v>
       </c>
       <c r="L40" t="n">
-        <v>0.2984441645957006</v>
+        <v>2.09124617534457</v>
       </c>
       <c r="M40" t="n">
-        <v>0.2984441645957006</v>
+        <v>1.78040885835914</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.773605705027022</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.813742731615976</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.720469854471522</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.622305564026728</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>3</v>
+      </c>
+      <c r="T40" t="n">
+        <v>5</v>
+      </c>
+      <c r="U40" t="n">
+        <v>7</v>
+      </c>
+      <c r="V40" t="n">
+        <v>2.04642096566142</v>
+      </c>
+      <c r="W40" t="n">
+        <v>1.88054919089684</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0.235254809267069</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0.213643303110372</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB40" t="inlineStr"/>
+      <c r="AC40" t="n">
+        <v>0.298444164595701</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>0.130978182749524</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>2.935357751301653</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>0.261956365499047</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>57.80322960900811</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>0.3516028534682703</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>2.935357751301653</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>0.2514115240037431</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>0.576982045252577</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>1.257057620018715</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>0.75</v>
       </c>
     </row>
     <row r="41">
@@ -2274,31 +5612,113 @@
         <v>40</v>
       </c>
       <c r="E41" t="n">
-        <v>0.8496527512783332</v>
+        <v>0.849652751278333</v>
       </c>
       <c r="F41" t="n">
-        <v>0.5</v>
+        <v>0.709838785893335</v>
       </c>
       <c r="G41" t="n">
-        <v>0.7098387858933353</v>
+        <v>0.00772418990203466</v>
       </c>
       <c r="H41" t="n">
-        <v>0.007724189902034662</v>
+        <v>0.193122453870118</v>
       </c>
       <c r="I41" t="n">
-        <v>0.1931224538701181</v>
+        <v>0.266497461928934</v>
       </c>
       <c r="J41" t="n">
-        <v>0.2664974619289341</v>
+        <v>1.64394847417694</v>
       </c>
       <c r="K41" t="n">
-        <v>4.032816627002415</v>
+        <v>2.49360122545527</v>
       </c>
       <c r="L41" t="n">
-        <v>0.4274795290924723</v>
+        <v>2.14394847417694</v>
       </c>
       <c r="M41" t="n">
-        <v>0.4274795290924723</v>
+        <v>1.93824419707554</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.807552095321315</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.813855281524332</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.742791805568067</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0.708485814446224</v>
+      </c>
+      <c r="R41" t="n">
+        <v>3</v>
+      </c>
+      <c r="S41" t="n">
+        <v>2</v>
+      </c>
+      <c r="T41" t="n">
+        <v>3</v>
+      </c>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>4.03281662700241</v>
+      </c>
+      <c r="W41" t="n">
+        <v>3.58947530303801</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0.471459152291709</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0.415073833281869</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB41" t="inlineStr"/>
+      <c r="AC41" t="n">
+        <v>0.427479529092472</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>0.47671089844611</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>6.068387241760187</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>0.47671089844611</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>102.8967703909919</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>0.8263039795740581</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>6.068387241760187</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>0.5261183047585571</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>1.222742805233638</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>2.630591523792786</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>1.75</v>
       </c>
     </row>
     <row r="42">
@@ -2319,31 +5739,113 @@
         <v>41</v>
       </c>
       <c r="E42" t="n">
-        <v>0.2898572845913149</v>
+        <v>0.289857284591315</v>
       </c>
       <c r="F42" t="n">
+        <v>0.189419541276954</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.221929163526752</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.177006536271763</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.104060913705584</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.962961323286578</v>
+      </c>
+      <c r="K42" t="n">
+        <v>1.25281860787789</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1.46296132328658</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1.13606536198184</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.368917422419274</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.299600195420856</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.454361087813234</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0.270485215519469</v>
+      </c>
+      <c r="R42" t="n">
+        <v>26</v>
+      </c>
+      <c r="S42" t="n">
+        <v>15</v>
+      </c>
+      <c r="T42" t="n">
+        <v>26</v>
+      </c>
+      <c r="U42" t="n">
+        <v>33</v>
+      </c>
+      <c r="V42" t="n">
+        <v>1.64580314229485</v>
+      </c>
+      <c r="W42" t="n">
+        <v>1.56044451472348</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0.18761693348336</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>0.175912675569554</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>42</v>
+      </c>
+      <c r="AB42" t="inlineStr"/>
+      <c r="AC42" t="n">
+        <v>0.238010772880239</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>0.215693375203093</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>4.712576198441037</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>0.215693375203093</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>70.7</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>49.6032296090081</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>0.2652811948323476</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>2.356288099220519</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>0.2006381877040145</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>0.9432913757495345</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>1.003190938520072</v>
+      </c>
+      <c r="AN42" t="n">
         <v>0.5</v>
       </c>
-      <c r="G42" t="n">
-        <v>0.1894195412769541</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0.2219291635267521</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0.1770065362717634</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.1040609137055838</v>
-      </c>
-      <c r="K42" t="n">
-        <v>1.645803142294847</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0.2380107728802393</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.2380107728802393</v>
+      <c r="AO42" t="n">
+        <v>1.25</v>
       </c>
     </row>
     <row r="43">
@@ -2364,31 +5866,113 @@
         <v>42</v>
       </c>
       <c r="E43" t="n">
-        <v>0.1169961077615813</v>
+        <v>0.116996107761581</v>
       </c>
       <c r="F43" t="n">
-        <v>0.5</v>
+        <v>0.310053947719913</v>
       </c>
       <c r="G43" t="n">
-        <v>0.3100539477199127</v>
+        <v>0.0938206480783723</v>
       </c>
       <c r="H43" t="n">
-        <v>0.09382064807837227</v>
+        <v>0.497255011092817</v>
       </c>
       <c r="I43" t="n">
-        <v>0.4972550110928169</v>
+        <v>0.0685279187817259</v>
       </c>
       <c r="J43" t="n">
-        <v>0.0685279187817259</v>
+        <v>0.859410489179788</v>
       </c>
       <c r="K43" t="n">
-        <v>2.534130217488834</v>
+        <v>0.97640659694137</v>
       </c>
       <c r="L43" t="n">
-        <v>0.008211753190852012</v>
+        <v>1.35941048917979</v>
       </c>
       <c r="M43" t="n">
-        <v>0.008211753190852012</v>
+        <v>1.10182487059799</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.302218680471237</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.185038401541332</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.410502343391282</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0.251789439618177</v>
+      </c>
+      <c r="R43" t="n">
+        <v>34</v>
+      </c>
+      <c r="S43" t="n">
+        <v>32</v>
+      </c>
+      <c r="T43" t="n">
+        <v>33</v>
+      </c>
+      <c r="U43" t="n">
+        <v>36</v>
+      </c>
+      <c r="V43" t="n">
+        <v>2.53413021748883</v>
+      </c>
+      <c r="W43" t="n">
+        <v>2.29260418855065</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0.293248816028625</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>0.262212083262737</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>33</v>
+      </c>
+      <c r="AB43" t="inlineStr"/>
+      <c r="AC43" t="n">
+        <v>0.00821175319085201</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>24.39445924495339</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>85.2</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>106.2967703909919</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>0.8620958868133431</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>4.878891848990678</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>0.4218223027370212</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>5</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>2.109111513685106</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="44">
@@ -2398,7 +5982,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -2409,31 +5993,113 @@
         <v>43</v>
       </c>
       <c r="E44" t="n">
-        <v>0.3103869342898573</v>
+        <v>0.310386934289857</v>
       </c>
       <c r="F44" t="n">
-        <v>0.5</v>
+        <v>0.320611555127248</v>
       </c>
       <c r="G44" t="n">
-        <v>0.3206115551272479</v>
+        <v>0.285983421250942</v>
       </c>
       <c r="H44" t="n">
-        <v>0.2859834212509419</v>
+        <v>0.297387970285167</v>
       </c>
       <c r="I44" t="n">
-        <v>0.2973879702851674</v>
+        <v>0.0583756345177665</v>
       </c>
       <c r="J44" t="n">
-        <v>0.0583756345177665</v>
+        <v>1.05097657958514</v>
       </c>
       <c r="K44" t="n">
-        <v>2.338332485883568</v>
+        <v>1.361363513875</v>
       </c>
       <c r="L44" t="n">
+        <v>1.55097657958514</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1.29156622488042</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.425609451199012</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.344587745366246</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.491639769965133</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.355390810261629</v>
+      </c>
+      <c r="R44" t="n">
+        <v>20</v>
+      </c>
+      <c r="S44" t="n">
+        <v>12</v>
+      </c>
+      <c r="T44" t="n">
+        <v>21</v>
+      </c>
+      <c r="U44" t="n">
+        <v>26</v>
+      </c>
+      <c r="V44" t="n">
+        <v>2.33833248588357</v>
+      </c>
+      <c r="W44" t="n">
+        <v>2.07609656527409</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0.269966307181261</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>0.236692404539983</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>36</v>
+      </c>
+      <c r="AB44" t="inlineStr"/>
+      <c r="AC44" t="n">
         <v>0.342479158095476</v>
       </c>
-      <c r="M44" t="n">
-        <v>0.342479158095476</v>
+      <c r="AD44" t="n">
+        <v>0.145108882730792</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>2.957209105252955</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>0.290217765461585</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>52.30322960900811</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>0.2937041799929563</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>2.957209105252955</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>0.2533274699331948</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>0.581485911870233</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>1.266637349665974</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>0.75</v>
       </c>
     </row>
     <row r="45">
@@ -2454,31 +6120,113 @@
         <v>44</v>
       </c>
       <c r="E45" t="n">
-        <v>0.02228497290696787</v>
+        <v>0.0222849729069679</v>
       </c>
       <c r="F45" t="n">
-        <v>0.25</v>
+        <v>0.901294298093916</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9012942980939158</v>
+        <v>0.0324039186134137</v>
       </c>
       <c r="H45" t="n">
-        <v>0.03240391861341371</v>
+        <v>0.542624784364278</v>
       </c>
       <c r="I45" t="n">
-        <v>0.5426247843642775</v>
+        <v>0.194162436548223</v>
       </c>
       <c r="J45" t="n">
-        <v>0.1941624365482233</v>
+        <v>0.689906332311925</v>
       </c>
       <c r="K45" t="n">
-        <v>5.305317989362302</v>
+        <v>0.712191305218893</v>
       </c>
       <c r="L45" t="n">
-        <v>0.4706358822638467</v>
+        <v>0.939906332311925</v>
       </c>
       <c r="M45" t="n">
-        <v>0.09412717645276934</v>
+        <v>1.10752769171688</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.193038352610335</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.0755316630766277</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.232822214025648</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0.254903257829739</v>
+      </c>
+      <c r="R45" t="n">
+        <v>41</v>
+      </c>
+      <c r="S45" t="n">
+        <v>42</v>
+      </c>
+      <c r="T45" t="n">
+        <v>41</v>
+      </c>
+      <c r="U45" t="n">
+        <v>35</v>
+      </c>
+      <c r="V45" t="n">
+        <v>5.3053179893623</v>
+      </c>
+      <c r="W45" t="n">
+        <v>4.59818612781661</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0.622773592885717</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>0.53397022955163</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB45" t="inlineStr"/>
+      <c r="AC45" t="n">
+        <v>0.470635882263847</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>0.0736683646136944</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>7.408699560079218</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>0.368341823068472</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>113.3967703909919</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>0.9368378107542029</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>7.408699560079218</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>0.6436380674332315</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>1.498999732889624</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>3.218190337166158</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
